--- a/References.xlsx
+++ b/References.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>POMClasses_NamingConvenction</t>
   </si>
@@ -107,13 +107,187 @@
   <si>
     <t>POM class name should be ends with Page eg: ContactsPage
 Components name should be append with Speicified naming convention eg: lastNameTxb.calenderCal</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>ContactsListPage</t>
+  </si>
+  <si>
+    <t>CreateNewContactPage</t>
+  </si>
+  <si>
+    <t>ContactInformationPage</t>
+  </si>
+  <si>
+    <t>CRMSettingsPage</t>
+  </si>
+  <si>
+    <t>SettingsUserPage</t>
+  </si>
+  <si>
+    <t>SettingsCreateNewUsersPage</t>
+  </si>
+  <si>
+    <t>SettingsCreateNewGroupPage</t>
+  </si>
+  <si>
+    <t>SettingsGroupPage</t>
+  </si>
+  <si>
+    <t>SettingsRolePage</t>
+  </si>
+  <si>
+    <t>SettingsCreateNewRolesPage</t>
+  </si>
+  <si>
+    <t>SettingsCurrencyPage</t>
+  </si>
+  <si>
+    <t>SettingsCreateNewCurrencyPage</t>
+  </si>
+  <si>
+    <t>ContactsNewCustomViewPage</t>
+  </si>
+  <si>
+    <t>LoginBtn</t>
+  </si>
+  <si>
+    <t>UsernameTxb</t>
+  </si>
+  <si>
+    <t>passwordTxb</t>
+  </si>
+  <si>
+    <t>contactsLnk</t>
+  </si>
+  <si>
+    <t>groupsLnk</t>
+  </si>
+  <si>
+    <t>searchNowBtn</t>
+  </si>
+  <si>
+    <t>createContactPlusBtn</t>
+  </si>
+  <si>
+    <t>lastNameTxb</t>
+  </si>
+  <si>
+    <t>AssignedToDrop</t>
+  </si>
+  <si>
+    <t>saveBtn</t>
+  </si>
+  <si>
+    <t>signOutLnk</t>
+  </si>
+  <si>
+    <t>firstNameTxb</t>
+  </si>
+  <si>
+    <t>CalenderCal</t>
+  </si>
+  <si>
+    <t>crmSettingsLnk</t>
+  </si>
+  <si>
+    <t>newGroupBtn</t>
+  </si>
+  <si>
+    <t>groupNameTxb</t>
+  </si>
+  <si>
+    <t>addGrpBtn</t>
+  </si>
+  <si>
+    <t>membersOfEntityTextSelectArea</t>
+  </si>
+  <si>
+    <t>doubleForwardSymbol</t>
+  </si>
+  <si>
+    <t>currencyLnk</t>
+  </si>
+  <si>
+    <t>NewCurrencyLnk</t>
+  </si>
+  <si>
+    <t>currencyNameTxb</t>
+  </si>
+  <si>
+    <t>currencyCodeTxb</t>
+  </si>
+  <si>
+    <t>CurrencySymbolTxb</t>
+  </si>
+  <si>
+    <t>CurrencyConverstionRateTxb</t>
+  </si>
+  <si>
+    <t>RolesLnk</t>
+  </si>
+  <si>
+    <t>newRolesPlusBtn</t>
+  </si>
+  <si>
+    <t>rolesNameTxb</t>
+  </si>
+  <si>
+    <t>membersTextSelectArea</t>
+  </si>
+  <si>
+    <t>confirmPasswordTxb</t>
+  </si>
+  <si>
+    <t>emailTxb</t>
+  </si>
+  <si>
+    <t>UserLastNameTxb</t>
+  </si>
+  <si>
+    <t>rolesTxb</t>
+  </si>
+  <si>
+    <t>createFilterLnk</t>
+  </si>
+  <si>
+    <t>viewNameTxb</t>
+  </si>
+  <si>
+    <t>otherStreetTxb</t>
+  </si>
+  <si>
+    <t>otherPOBoxTxb</t>
+  </si>
+  <si>
+    <t>otherCityTxb</t>
+  </si>
+  <si>
+    <t>otherStateTxb</t>
+  </si>
+  <si>
+    <t>otherPostelCodeTxb</t>
+  </si>
+  <si>
+    <t>otherCountryTxb</t>
+  </si>
+  <si>
+    <t>copyOtherAddressChk</t>
+  </si>
+  <si>
+    <t>TC-61 To TC-70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +303,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +333,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -167,26 +363,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +554,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,6 +589,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
@@ -489,15 +780,15 @@
     <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="72.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,101 +802,101 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -619,24 +910,334 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/References.xlsx
+++ b/References.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>POMClasses_NamingConvenction</t>
   </si>
@@ -281,12 +281,18 @@
   </si>
   <si>
     <t>TC-61 To TC-70</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Icn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -434,34 +440,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,12 +799,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -898,6 +916,14 @@
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -913,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,300 +952,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="10" t="s">
         <v>86</v>
       </c>
     </row>

--- a/References.xlsx
+++ b/References.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>POMClasses_NamingConvenction</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>Icn</t>
+  </si>
+  <si>
+    <t>DropDownText</t>
+  </si>
+  <si>
+    <t>Ddtxt</t>
+  </si>
+  <si>
+    <t>Components_NamingConvenction</t>
   </si>
 </sst>
 </file>
@@ -346,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -438,17 +447,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -479,7 +477,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,16 +782,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
@@ -811,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -924,6 +922,14 @@
       </c>
       <c r="D14" s="15" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
